--- a/excel_40/aula04/atividades.xlsx
+++ b/excel_40/aula04/atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\excel_40\aula04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D768AC-5852-4984-B3A6-01A627412ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37013F5-F289-486A-AF3A-E55C31493FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="atividade01" sheetId="1" r:id="rId1"/>
     <sheet name="atividade02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">atividade01!$B$11:$B$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">atividade01!$D$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">atividade01!$D$11:$D$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">atividade01!$B$11:$B$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">atividade01!$D$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">atividade01!$D$11:$D$16</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Empresa Nacional S/A</t>
   </si>
@@ -101,16 +93,89 @@
   <si>
     <t>Total do Semestre</t>
   </si>
+  <si>
+    <t>CONTAS A PAGAR</t>
+  </si>
+  <si>
+    <t>JANEIRO</t>
+  </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>SALÁRIO</t>
+  </si>
+  <si>
+    <t>CONTAS</t>
+  </si>
+  <si>
+    <t>ÁGUA</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>ESCOLA</t>
+  </si>
+  <si>
+    <t>IPVA</t>
+  </si>
+  <si>
+    <t>SHOPPING</t>
+  </si>
+  <si>
+    <t>COMBUSTÍVEL</t>
+  </si>
+  <si>
+    <t>TOTAL DE CONTAS</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>Salário Mínimo</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>ALUGUEL</t>
+  </si>
+  <si>
+    <t>ALIMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>VALE REFEIÇÃO</t>
+  </si>
+  <si>
+    <t>Sal - INSS</t>
+  </si>
+  <si>
+    <t>Lucro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +204,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -156,25 +229,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -292,6 +659,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-59E2-4E95-8054-682EA9296332}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1137,6 +1509,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EC9E-4D0B-8789-E04314FA838D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1152,6 +1529,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EC9E-4D0B-8789-E04314FA838D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1167,6 +1549,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EC9E-4D0B-8789-E04314FA838D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1400,6 +1787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24FD-4008-A958-67D9C6C7A654}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1415,6 +1807,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24FD-4008-A958-67D9C6C7A654}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1430,6 +1827,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-24FD-4008-A958-67D9C6C7A654}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1663,6 +2065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CB49-4BB6-A57C-CC9074777818}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1678,6 +2085,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CB49-4BB6-A57C-CC9074777818}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1693,6 +2105,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CB49-4BB6-A57C-CC9074777818}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1933,6 +2350,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5D59-4D4F-8155-0B2FEA524057}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1948,6 +2370,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D59-4D4F-8155-0B2FEA524057}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1963,6 +2390,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5D59-4D4F-8155-0B2FEA524057}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2203,6 +2635,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-616C-48EE-8ADA-5C16454FF9A6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2218,6 +2655,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-616C-48EE-8ADA-5C16454FF9A6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2233,6 +2675,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-616C-48EE-8ADA-5C16454FF9A6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -10323,17 +10770,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -10381,7 +10828,7 @@
         <v>5696</v>
       </c>
       <c r="F3">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" ref="F3:F8" si="0">SUM(C3:E3)</f>
         <v>15236</v>
       </c>
       <c r="G3">
@@ -10414,19 +10861,19 @@
         <v>7910</v>
       </c>
       <c r="F4">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>21160</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" si="0">MAX(C4:E4)</f>
+        <f t="shared" ref="G4:G8" si="1">MAX(C4:E4)</f>
         <v>7910</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H9" si="1">MIN(C4:E4)</f>
+        <f t="shared" ref="H4:H8" si="2">MIN(C4:E4)</f>
         <v>6250</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I8" si="2">AVERAGE(C4:E4)</f>
+        <f t="shared" ref="I4:I8" si="3">AVERAGE(C4:E4)</f>
         <v>7053.333333333333</v>
       </c>
     </row>
@@ -10447,19 +10894,19 @@
         <v>4176</v>
       </c>
       <c r="F5">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>11172</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4176</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3724</v>
       </c>
     </row>
@@ -10480,19 +10927,19 @@
         <v>10125</v>
       </c>
       <c r="F6">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>26815</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10125</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8938.3333333333339</v>
       </c>
     </row>
@@ -10513,19 +10960,19 @@
         <v>5676</v>
       </c>
       <c r="F7">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>15337</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5676</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4557</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5112.333333333333</v>
       </c>
     </row>
@@ -10546,19 +10993,19 @@
         <v>4113</v>
       </c>
       <c r="F8">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4113</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3260</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3671</v>
       </c>
     </row>
@@ -10571,11 +11018,11 @@
         <v>29867</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:F9" si="3">SUM(D3:D8)</f>
+        <f t="shared" ref="D9:E9" si="4">SUM(D3:D8)</f>
         <v>33170</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37696</v>
       </c>
       <c r="F9" s="2">
@@ -10663,19 +11110,19 @@
         <v>10197</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F16" si="4">SUM(C12:E12)</f>
+        <f t="shared" ref="F12:F16" si="5">SUM(C12:E12)</f>
         <v>28556</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G16" si="5">MAX(C12:E12)</f>
+        <f t="shared" ref="G12:G16" si="6">MAX(C12:E12)</f>
         <v>10197</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H16" si="6">MIN(C12:E12)</f>
+        <f t="shared" ref="H12:H16" si="7">MIN(C12:E12)</f>
         <v>8701</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:I16" si="7">AVERAGE(C12:E12)</f>
+        <f t="shared" ref="I12:I16" si="8">AVERAGE(C12:E12)</f>
         <v>9518.6666666666661</v>
       </c>
     </row>
@@ -10696,19 +11143,19 @@
         <v>5769</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10838</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5769</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3612.6666666666665</v>
       </c>
     </row>
@@ -10729,19 +11176,19 @@
         <v>13969</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38648</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13969</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12314</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12882.666666666666</v>
       </c>
     </row>
@@ -10762,19 +11209,19 @@
         <v>7957</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21343</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7957</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6344</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7114.333333333333</v>
       </c>
     </row>
@@ -10795,19 +11242,19 @@
         <v>5671</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15218</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5671</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4525</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5072.666666666667</v>
       </c>
     </row>
@@ -10820,15 +11267,15 @@
         <v>42718</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:F17" si="8">SUM(D11:D16)</f>
+        <f t="shared" ref="D17:F17" si="9">SUM(D11:D16)</f>
         <v>41541</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51421</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>135680</v>
       </c>
     </row>
@@ -10854,12 +11301,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA8A6D2-650C-4517-86F7-E8F49DDA9D89}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5">
+        <f>1302*2</f>
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="20">
+        <f>$I$6</f>
+        <v>2369.64</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3:G3" si="0">$I$6</f>
+        <v>2369.64</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" si="0"/>
+        <v>2369.64</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" si="0"/>
+        <v>2369.64</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" si="0"/>
+        <v>2369.64</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="0"/>
+        <v>2369.64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22">
+        <v>250</v>
+      </c>
+      <c r="C4" s="22">
+        <v>250</v>
+      </c>
+      <c r="D4" s="22">
+        <v>250</v>
+      </c>
+      <c r="E4" s="22">
+        <v>250</v>
+      </c>
+      <c r="F4" s="22">
+        <v>250</v>
+      </c>
+      <c r="G4" s="23">
+        <v>250</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="20">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20">
+        <v>20</v>
+      </c>
+      <c r="D6" s="20">
+        <v>20</v>
+      </c>
+      <c r="E6" s="20">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+      <c r="G6" s="21">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8">
+        <f>I2-I2*I4</f>
+        <v>2369.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>600</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+      <c r="D9" s="5">
+        <v>600</v>
+      </c>
+      <c r="E9" s="5">
+        <v>600</v>
+      </c>
+      <c r="F9" s="5">
+        <v>600</v>
+      </c>
+      <c r="G9" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>250</v>
+      </c>
+      <c r="E11" s="5">
+        <v>250</v>
+      </c>
+      <c r="F11" s="5">
+        <v>250</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>150</v>
+      </c>
+      <c r="D12" s="5">
+        <v>150</v>
+      </c>
+      <c r="E12" s="5">
+        <v>150</v>
+      </c>
+      <c r="F12" s="5">
+        <v>150</v>
+      </c>
+      <c r="G12" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="22">
+        <v>600</v>
+      </c>
+      <c r="C13" s="22">
+        <v>600</v>
+      </c>
+      <c r="D13" s="22">
+        <v>600</v>
+      </c>
+      <c r="E13" s="22">
+        <v>600</v>
+      </c>
+      <c r="F13" s="22">
+        <v>600</v>
+      </c>
+      <c r="G13" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="28">
+        <f>SUM(B6:B13)</f>
+        <v>1555</v>
+      </c>
+      <c r="C14" s="28">
+        <f t="shared" ref="C14:G14" si="1">SUM(C6:C13)</f>
+        <v>1515</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="1"/>
+        <v>1705</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="1"/>
+        <v>1670</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="1"/>
+        <v>1670</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="1"/>
+        <v>1420</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="15">
+        <f>B3+B4-B14</f>
+        <v>1064.6399999999999</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:G15" si="2">C3+C4-C14</f>
+        <v>1104.6399999999999</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="2"/>
+        <v>914.63999999999987</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>949.63999999999987</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="2"/>
+        <v>949.63999999999987</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="2"/>
+        <v>1199.6399999999999</v>
+      </c>
+      <c r="H15" s="32">
+        <f>SUM(B15:G15)</f>
+        <v>6182.8399999999983</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B15:G15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>